--- a/application/views/courses/employee_list_template_vi.xlsx
+++ b/application/views/courses/employee_list_template_vi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\conghau_hrm\application\views\courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C38C7-0BED-4981-AAC1-607FADB70F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FCE8AE-F465-4B90-89FA-741E9A956D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D995187D-D556-4484-BB8D-6426A7EDA739}"/>
   </bookViews>
@@ -122,35 +122,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Tốt" xfId="1" builtinId="26"/>
+    <cellStyle name="Xấu" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,82 +453,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B1782-DFA2-47ED-BDE3-C872D404340C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="18.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
